--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc206_NN_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc206_NN_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,33 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="8">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -138,11 +158,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -165,26 +189,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true">
-      <c r="A1" t="s" s="3">
+    <row r="1" s="7" customFormat="true">
+      <c r="A1" t="s" s="7">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" t="s" s="7">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="3">
+      <c r="C1" t="s" s="7">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="D1" t="s" s="7">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="3">
+      <c r="E1" t="s" s="7">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="3">
+      <c r="F1" t="s" s="7">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="3">
+      <c r="G1" t="s" s="7">
         <v>7</v>
       </c>
     </row>
@@ -212,28 +236,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="3">
+      <c r="A3" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="3">
+      <c r="B3" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="3">
+      <c r="C3" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="3">
+      <c r="D3" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="3">
+      <c r="E3" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="3">
+      <c r="F3" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="3">
+      <c r="G3" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="3">
+      <c r="H3" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -258,28 +282,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="3">
+      <c r="B5" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="3">
+      <c r="C5" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="3">
+      <c r="D5" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="3">
+      <c r="E5" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="3">
+      <c r="F5" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="3">
+      <c r="G5" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="3">
+      <c r="H5" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="3">
+      <c r="I5" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -831,10 +855,10 @@
       <c r="I24">
         <f>((C24-C23)^2+(D24- D23)^2)^.5</f>
       </c>
-      <c r="J24" s="3" t="s">
+      <c r="J24" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K24" s="3" t="s">
+      <c r="K24" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L24" t="n">
@@ -878,28 +902,28 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="s" s="3">
+      <c r="A26" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B26" t="s" s="3">
+      <c r="B26" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C26" t="s" s="3">
+      <c r="C26" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D26" t="s" s="3">
+      <c r="D26" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E26" t="s" s="3">
+      <c r="E26" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F26" t="s" s="3">
+      <c r="F26" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G26" t="s" s="3">
+      <c r="G26" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H26" t="s" s="3">
+      <c r="H26" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -924,28 +948,28 @@
       </c>
     </row>
     <row r="28">
-      <c r="B28" t="s" s="3">
+      <c r="B28" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C28" t="s" s="3">
+      <c r="C28" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D28" t="s" s="3">
+      <c r="D28" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E28" t="s" s="3">
+      <c r="E28" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F28" t="s" s="3">
+      <c r="F28" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G28" t="s" s="3">
+      <c r="G28" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H28" t="s" s="3">
+      <c r="H28" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I28" t="s" s="3">
+      <c r="I28" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1613,10 +1637,10 @@
       <c r="I51">
         <f>((C51-C50)^2+(D51- D50)^2)^.5</f>
       </c>
-      <c r="J51" s="3" t="s">
+      <c r="J51" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K51" s="3" t="s">
+      <c r="K51" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L51" t="n">
@@ -1660,28 +1684,28 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="s" s="3">
+      <c r="A53" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B53" t="s" s="3">
+      <c r="B53" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C53" t="s" s="3">
+      <c r="C53" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D53" t="s" s="3">
+      <c r="D53" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E53" t="s" s="3">
+      <c r="E53" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F53" t="s" s="3">
+      <c r="F53" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G53" t="s" s="3">
+      <c r="G53" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H53" t="s" s="3">
+      <c r="H53" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1706,28 +1730,28 @@
       </c>
     </row>
     <row r="55">
-      <c r="B55" t="s" s="3">
+      <c r="B55" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C55" t="s" s="3">
+      <c r="C55" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D55" t="s" s="3">
+      <c r="D55" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E55" t="s" s="3">
+      <c r="E55" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F55" t="s" s="3">
+      <c r="F55" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G55" t="s" s="3">
+      <c r="G55" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H55" t="s" s="3">
+      <c r="H55" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I55" t="s" s="3">
+      <c r="I55" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2221,10 +2245,10 @@
       <c r="I72">
         <f>((C72-C71)^2+(D72- D71)^2)^.5</f>
       </c>
-      <c r="J72" s="3" t="s">
+      <c r="J72" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K72" s="3" t="s">
+      <c r="K72" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L72" t="n">
@@ -2268,28 +2292,28 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="s" s="3">
+      <c r="A74" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B74" t="s" s="3">
+      <c r="B74" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C74" t="s" s="3">
+      <c r="C74" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D74" t="s" s="3">
+      <c r="D74" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E74" t="s" s="3">
+      <c r="E74" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F74" t="s" s="3">
+      <c r="F74" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G74" t="s" s="3">
+      <c r="G74" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H74" t="s" s="3">
+      <c r="H74" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2314,28 +2338,28 @@
       </c>
     </row>
     <row r="76">
-      <c r="B76" t="s" s="3">
+      <c r="B76" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C76" t="s" s="3">
+      <c r="C76" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D76" t="s" s="3">
+      <c r="D76" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E76" t="s" s="3">
+      <c r="E76" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F76" t="s" s="3">
+      <c r="F76" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G76" t="s" s="3">
+      <c r="G76" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H76" t="s" s="3">
+      <c r="H76" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I76" t="s" s="3">
+      <c r="I76" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2829,10 +2853,10 @@
       <c r="I93">
         <f>((C93-C92)^2+(D93- D92)^2)^.5</f>
       </c>
-      <c r="J93" s="3" t="s">
+      <c r="J93" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K93" s="3" t="s">
+      <c r="K93" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L93" t="n">
@@ -2876,28 +2900,28 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="s" s="3">
+      <c r="A95" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B95" t="s" s="3">
+      <c r="B95" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C95" t="s" s="3">
+      <c r="C95" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D95" t="s" s="3">
+      <c r="D95" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E95" t="s" s="3">
+      <c r="E95" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F95" t="s" s="3">
+      <c r="F95" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G95" t="s" s="3">
+      <c r="G95" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H95" t="s" s="3">
+      <c r="H95" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2922,28 +2946,28 @@
       </c>
     </row>
     <row r="97">
-      <c r="B97" t="s" s="3">
+      <c r="B97" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C97" t="s" s="3">
+      <c r="C97" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D97" t="s" s="3">
+      <c r="D97" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E97" t="s" s="3">
+      <c r="E97" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F97" t="s" s="3">
+      <c r="F97" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G97" t="s" s="3">
+      <c r="G97" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H97" t="s" s="3">
+      <c r="H97" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I97" t="s" s="3">
+      <c r="I97" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3263,10 +3287,10 @@
       <c r="I108">
         <f>((C108-C107)^2+(D108- D107)^2)^.5</f>
       </c>
-      <c r="J108" s="3" t="s">
+      <c r="J108" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K108" s="3" t="s">
+      <c r="K108" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L108" t="n">
@@ -3310,28 +3334,28 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="s" s="3">
+      <c r="A110" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B110" t="s" s="3">
+      <c r="B110" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C110" t="s" s="3">
+      <c r="C110" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D110" t="s" s="3">
+      <c r="D110" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E110" t="s" s="3">
+      <c r="E110" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F110" t="s" s="3">
+      <c r="F110" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G110" t="s" s="3">
+      <c r="G110" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H110" t="s" s="3">
+      <c r="H110" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3356,28 +3380,28 @@
       </c>
     </row>
     <row r="112">
-      <c r="B112" t="s" s="3">
+      <c r="B112" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C112" t="s" s="3">
+      <c r="C112" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D112" t="s" s="3">
+      <c r="D112" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E112" t="s" s="3">
+      <c r="E112" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F112" t="s" s="3">
+      <c r="F112" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G112" t="s" s="3">
+      <c r="G112" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H112" t="s" s="3">
+      <c r="H112" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I112" t="s" s="3">
+      <c r="I112" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3668,10 +3692,10 @@
       <c r="I122">
         <f>((C122-C121)^2+(D122- D121)^2)^.5</f>
       </c>
-      <c r="J122" s="3" t="s">
+      <c r="J122" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K122" s="3" t="s">
+      <c r="K122" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L122" t="n">
@@ -3715,28 +3739,28 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="s" s="3">
+      <c r="A124" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B124" t="s" s="3">
+      <c r="B124" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C124" t="s" s="3">
+      <c r="C124" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D124" t="s" s="3">
+      <c r="D124" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E124" t="s" s="3">
+      <c r="E124" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F124" t="s" s="3">
+      <c r="F124" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G124" t="s" s="3">
+      <c r="G124" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H124" t="s" s="3">
+      <c r="H124" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3761,28 +3785,28 @@
       </c>
     </row>
     <row r="126">
-      <c r="B126" t="s" s="3">
+      <c r="B126" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C126" t="s" s="3">
+      <c r="C126" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D126" t="s" s="3">
+      <c r="D126" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E126" t="s" s="3">
+      <c r="E126" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F126" t="s" s="3">
+      <c r="F126" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G126" t="s" s="3">
+      <c r="G126" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H126" t="s" s="3">
+      <c r="H126" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I126" t="s" s="3">
+      <c r="I126" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4044,10 +4068,10 @@
       <c r="I135">
         <f>((C135-C134)^2+(D135- D134)^2)^.5</f>
       </c>
-      <c r="J135" s="3" t="s">
+      <c r="J135" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K135" s="3" t="s">
+      <c r="K135" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L135" t="n">
@@ -4091,28 +4115,28 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="s" s="3">
+      <c r="A137" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B137" t="s" s="3">
+      <c r="B137" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C137" t="s" s="3">
+      <c r="C137" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D137" t="s" s="3">
+      <c r="D137" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E137" t="s" s="3">
+      <c r="E137" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F137" t="s" s="3">
+      <c r="F137" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G137" t="s" s="3">
+      <c r="G137" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H137" t="s" s="3">
+      <c r="H137" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4137,28 +4161,28 @@
       </c>
     </row>
     <row r="139">
-      <c r="B139" t="s" s="3">
+      <c r="B139" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C139" t="s" s="3">
+      <c r="C139" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D139" t="s" s="3">
+      <c r="D139" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E139" t="s" s="3">
+      <c r="E139" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F139" t="s" s="3">
+      <c r="F139" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G139" t="s" s="3">
+      <c r="G139" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H139" t="s" s="3">
+      <c r="H139" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I139" t="s" s="3">
+      <c r="I139" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4217,10 +4241,10 @@
       <c r="I141">
         <f>((C141-C140)^2+(D141- D140)^2)^.5</f>
       </c>
-      <c r="J141" s="3" t="s">
+      <c r="J141" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K141" s="3" t="s">
+      <c r="K141" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L141" t="n">
